--- a/Employee_Personal_Details.xlsx
+++ b/Employee_Personal_Details.xlsx
@@ -436,119 +436,119 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Emp_name</t>
+          <t>emp_name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Emp_Email</t>
+          <t>emp_email</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Emp_id</t>
+          <t>emp_id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Emp_Salary</t>
+          <t>emp_salary</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Emp_BU</t>
+          <t>emp_bu</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rebecca Russo</t>
+          <t>Juan Moore</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>christopher70@example.com</t>
+          <t>mwatson@example.net</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1465</v>
+        <v>8710</v>
       </c>
       <c r="D2" t="n">
-        <v>27716</v>
+        <v>45724</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>Sales</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark Cabrera</t>
+          <t>Derek Reese</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>robertlewis@example.org</t>
+          <t>katie29@example.net</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9228</v>
+        <v>9625</v>
       </c>
       <c r="D3" t="n">
-        <v>50345</v>
+        <v>48907</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mr. Joshua Carroll</t>
+          <t>Tyler Leon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ilee@example.com</t>
+          <t>davidnorris@example.org</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7715</v>
+        <v>4542</v>
       </c>
       <c r="D4" t="n">
-        <v>96873</v>
+        <v>98608</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Sales</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kim Richardson</t>
+          <t>Michael Walker</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>thomasadrian@example.org</t>
+          <t>adamball@example.com</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>412</v>
+        <v>8622</v>
       </c>
       <c r="D5" t="n">
-        <v>35008</v>
+        <v>70014</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>FINANCE</t>
         </is>
       </c>
     </row>
